--- a/excel/informes/RendicionAlmuerzos octubre.xlsx
+++ b/excel/informes/RendicionAlmuerzos octubre.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="12330"/>
@@ -11,12 +11,15 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$I$35</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>N°</t>
   </si>
@@ -61,6 +64,9 @@
   </si>
   <si>
     <t>JUEVES</t>
+  </si>
+  <si>
+    <t>MIERCOLES</t>
   </si>
 </sst>
 </file>
@@ -138,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -168,6 +174,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -243,13 +252,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -576,10 +585,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I30"/>
+  <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,22 +604,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
@@ -651,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>7</v>
@@ -672,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>7</v>
@@ -693,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>7</v>
@@ -714,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>7</v>
@@ -735,59 +744,85 @@
         <v>2</v>
       </c>
       <c r="F16" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="11">
-        <f>SUM(F12:F16)</f>
-        <v>50</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7">
+        <v>43404</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="8">
+        <v>12</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="11">
+        <f>SUM(F12:F17)</f>
+        <v>72</v>
+      </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D29" s="14" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D30" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E32" s="13">
+        <v>72889097</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D29:F29"/>
     <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
